--- a/var_info/indv_panel_var_info/LSVAW_M_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/LSVAW_M_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F4D0DC-5C44-244A-A7C6-D60285E705BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E62422-30D7-6B45-86A4-417C433F3570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="197">
   <si>
     <t>ord</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>alc</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1480,11 +1483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q112" sqref="Q112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1494,7 +1497,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1538,10 +1541,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -1575,8 +1581,11 @@
       <c r="K2">
         <v>365</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -1610,8 +1619,11 @@
       <c r="K3">
         <v>365</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -1645,8 +1657,11 @@
       <c r="K4">
         <v>365</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -1680,8 +1695,11 @@
       <c r="K5">
         <v>365</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -1715,8 +1733,11 @@
       <c r="K6">
         <v>365</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -1750,8 +1771,11 @@
       <c r="K7">
         <v>365</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -1785,8 +1809,11 @@
       <c r="K8">
         <v>365</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -1820,8 +1847,11 @@
       <c r="K9">
         <v>365</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>145</v>
       </c>
@@ -1855,8 +1885,11 @@
       <c r="K10">
         <v>365</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -1890,8 +1923,11 @@
       <c r="K11">
         <v>365</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -1925,8 +1961,11 @@
       <c r="K12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -1960,8 +1999,11 @@
       <c r="K13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -1995,8 +2037,11 @@
       <c r="K14">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -2030,8 +2075,11 @@
       <c r="K15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -2065,8 +2113,11 @@
       <c r="K16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -2100,8 +2151,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>145</v>
       </c>
@@ -2135,8 +2189,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -2170,8 +2227,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -2205,8 +2265,11 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -2240,8 +2303,11 @@
       <c r="K21">
         <v>365</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2275,8 +2341,11 @@
       <c r="K22">
         <v>365</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -2310,8 +2379,11 @@
       <c r="K23">
         <v>365</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2345,8 +2417,11 @@
       <c r="K24">
         <v>365</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -2380,8 +2455,11 @@
       <c r="K25">
         <v>365</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -2415,8 +2493,11 @@
       <c r="K26">
         <v>365</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -2450,8 +2531,11 @@
       <c r="K27">
         <v>365</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -2485,8 +2569,11 @@
       <c r="K28">
         <v>365</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -2520,8 +2607,11 @@
       <c r="K29">
         <v>365</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -2555,8 +2645,11 @@
       <c r="K30">
         <v>365</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -2590,8 +2683,11 @@
       <c r="K31">
         <v>365</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -2625,8 +2721,11 @@
       <c r="K32">
         <v>365</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -2660,8 +2759,11 @@
       <c r="K33">
         <v>365</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -2695,8 +2797,11 @@
       <c r="K34">
         <v>365</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -2730,8 +2835,11 @@
       <c r="K35">
         <v>365</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -2765,8 +2873,11 @@
       <c r="K36">
         <v>365</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -2800,8 +2911,11 @@
       <c r="K37">
         <v>365</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -2835,8 +2949,11 @@
       <c r="K38">
         <v>365</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -2870,8 +2987,11 @@
       <c r="K39">
         <v>365</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -2905,8 +3025,11 @@
       <c r="K40">
         <v>365</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -2940,8 +3063,11 @@
       <c r="K41">
         <v>365</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -2975,8 +3101,11 @@
       <c r="K42">
         <v>365</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -3010,8 +3139,11 @@
       <c r="K43">
         <v>365</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>145</v>
       </c>
@@ -3045,8 +3177,11 @@
       <c r="K44">
         <v>365</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>145</v>
       </c>
@@ -3080,8 +3215,11 @@
       <c r="K45">
         <v>365</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -3115,8 +3253,11 @@
       <c r="K46">
         <v>365</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -3150,8 +3291,11 @@
       <c r="K47">
         <v>365</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -3185,8 +3329,11 @@
       <c r="K48">
         <v>365</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -3220,8 +3367,11 @@
       <c r="K49">
         <v>365</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -3255,8 +3405,11 @@
       <c r="K50">
         <v>365</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -3290,8 +3443,11 @@
       <c r="K51">
         <v>365</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -3325,8 +3481,11 @@
       <c r="K52">
         <v>365</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -3360,8 +3519,11 @@
       <c r="K53">
         <v>365</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -3395,8 +3557,11 @@
       <c r="K54">
         <v>365</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>145</v>
       </c>
@@ -3430,8 +3595,11 @@
       <c r="K55">
         <v>365</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>145</v>
       </c>
@@ -3465,8 +3633,11 @@
       <c r="K56">
         <v>365</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>145</v>
       </c>
@@ -3500,8 +3671,11 @@
       <c r="K57">
         <v>365</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>145</v>
       </c>
@@ -3535,8 +3709,11 @@
       <c r="K58">
         <v>365</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -3570,8 +3747,11 @@
       <c r="K59">
         <v>365</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>145</v>
       </c>
@@ -3605,8 +3785,11 @@
       <c r="K60">
         <v>365</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>145</v>
       </c>
@@ -3640,8 +3823,11 @@
       <c r="K61">
         <v>365</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>145</v>
       </c>
@@ -3675,8 +3861,11 @@
       <c r="K62">
         <v>365</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -3710,8 +3899,11 @@
       <c r="K63">
         <v>365</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -3745,8 +3937,11 @@
       <c r="K64">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>145</v>
       </c>
@@ -3780,8 +3975,11 @@
       <c r="K65">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -3815,8 +4013,11 @@
       <c r="K66">
         <v>365</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -3850,8 +4051,11 @@
       <c r="K67">
         <v>365</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -3885,8 +4089,11 @@
       <c r="K68">
         <v>365</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -3920,8 +4127,11 @@
       <c r="K69">
         <v>365</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -3955,8 +4165,11 @@
       <c r="K70">
         <v>365</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>145</v>
       </c>
@@ -3990,8 +4203,11 @@
       <c r="K71">
         <v>365</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>145</v>
       </c>
@@ -4025,8 +4241,11 @@
       <c r="K72">
         <v>365</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -4060,8 +4279,11 @@
       <c r="K73">
         <v>365</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -4095,8 +4317,11 @@
       <c r="K74">
         <v>365</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -4130,8 +4355,11 @@
       <c r="K75">
         <v>365</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -4165,8 +4393,11 @@
       <c r="K76">
         <v>365</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -4200,8 +4431,11 @@
       <c r="K77">
         <v>365</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -4235,8 +4469,11 @@
       <c r="K78">
         <v>365</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>145</v>
       </c>
@@ -4270,8 +4507,11 @@
       <c r="K79">
         <v>365</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>145</v>
       </c>
@@ -4305,8 +4545,11 @@
       <c r="K80">
         <v>365</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -4340,8 +4583,11 @@
       <c r="K81">
         <v>365</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -4375,8 +4621,11 @@
       <c r="K82">
         <v>365</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="O82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>145</v>
       </c>
@@ -4410,8 +4659,11 @@
       <c r="K83">
         <v>365</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -4445,8 +4697,11 @@
       <c r="K84">
         <v>365</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -4480,8 +4735,11 @@
       <c r="K85">
         <v>365</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>145</v>
       </c>
@@ -4515,8 +4773,11 @@
       <c r="K86">
         <v>365</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>145</v>
       </c>
@@ -4550,8 +4811,11 @@
       <c r="K87">
         <v>365</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>145</v>
       </c>
@@ -4585,8 +4849,11 @@
       <c r="K88">
         <v>365</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -4620,8 +4887,11 @@
       <c r="K89">
         <v>365</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>145</v>
       </c>
@@ -4655,8 +4925,11 @@
       <c r="K90">
         <v>365</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>145</v>
       </c>
@@ -4690,8 +4963,11 @@
       <c r="K91">
         <v>365</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -4725,8 +5001,11 @@
       <c r="K92">
         <v>365</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>145</v>
       </c>
@@ -4760,8 +5039,11 @@
       <c r="K93">
         <v>365</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -4795,8 +5077,11 @@
       <c r="K94">
         <v>365</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>145</v>
       </c>
@@ -4830,8 +5115,11 @@
       <c r="K95">
         <v>365</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>145</v>
       </c>
@@ -4865,8 +5153,11 @@
       <c r="K96">
         <v>365</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>145</v>
       </c>
@@ -4897,8 +5188,11 @@
       <c r="J97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>145</v>
       </c>
@@ -4929,8 +5223,11 @@
       <c r="J98">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -4961,8 +5258,11 @@
       <c r="J99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -4993,8 +5293,11 @@
       <c r="J100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>145</v>
       </c>
@@ -5025,8 +5328,11 @@
       <c r="J101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>145</v>
       </c>
@@ -5060,8 +5366,11 @@
       <c r="K102">
         <v>365</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>145</v>
       </c>
@@ -5095,8 +5404,11 @@
       <c r="K103">
         <v>365</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="O103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>145</v>
       </c>
@@ -5130,8 +5442,11 @@
       <c r="K104">
         <v>365</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="O104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>145</v>
       </c>
@@ -5165,8 +5480,11 @@
       <c r="K105">
         <v>365</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>145</v>
       </c>
@@ -5200,8 +5518,11 @@
       <c r="K106">
         <v>365</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="O106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>145</v>
       </c>
@@ -5235,8 +5556,11 @@
       <c r="K107">
         <v>365</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>145</v>
       </c>
@@ -5270,8 +5594,11 @@
       <c r="K108">
         <v>365</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>145</v>
       </c>
@@ -5305,8 +5632,11 @@
       <c r="K109">
         <v>365</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="O109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
         <v>145</v>
       </c>
@@ -5340,8 +5670,11 @@
       <c r="K110">
         <v>365</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
         <v>145</v>
       </c>
@@ -5375,8 +5708,11 @@
       <c r="K111">
         <v>365</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="O111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
         <v>145</v>
       </c>
@@ -5410,8 +5746,11 @@
       <c r="K112">
         <v>365</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>145</v>
       </c>
@@ -5445,8 +5784,11 @@
       <c r="K113">
         <v>365</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="O113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>145</v>
       </c>
@@ -5480,8 +5822,11 @@
       <c r="K114">
         <v>365</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>145</v>
       </c>
@@ -5514,6 +5859,9 @@
       </c>
       <c r="K115">
         <v>365</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5523,10 +5871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5535,7 +5883,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5579,10 +5927,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -5598,11 +5949,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -5618,11 +5969,11 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -5638,11 +5989,11 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -5658,11 +6009,11 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -5678,38 +6029,38 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="4:4">
@@ -5917,10 +6268,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5928,7 +6279,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5972,10 +6323,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -5991,11 +6345,11 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -6011,11 +6365,11 @@
       <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -6031,11 +6385,11 @@
       <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -6051,11 +6405,11 @@
       <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -6071,7 +6425,7 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6082,10 +6436,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6094,7 +6448,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -6138,10 +6492,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -6157,11 +6514,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -6177,11 +6534,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -6197,11 +6554,11 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -6217,11 +6574,11 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -6237,7 +6594,7 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6251,15 +6608,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -6303,6 +6660,9 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
